--- a/init_scripts/INIT_TABLE_DATA/t_store.xlsx
+++ b/init_scripts/INIT_TABLE_DATA/t_store.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE17286C-6DCE-4EFF-A593-8EB5EC978384}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>plt_name</t>
+  </si>
+  <si>
+    <t>plt_store_id</t>
+  </si>
+  <si>
+    <t>login_username</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>testA</t>
+  </si>
+  <si>
+    <t>淘宝</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +373,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2">
+        <v>321</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/init_scripts/INIT_TABLE_DATA/t_store.xlsx
+++ b/init_scripts/INIT_TABLE_DATA/t_store.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE17286C-6DCE-4EFF-A593-8EB5EC978384}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244C7507-DCE7-4A02-8AC8-BBAD1D5B125E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -40,23 +40,33 @@
     <t>url</t>
   </si>
   <si>
-    <t>created</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>testA</t>
-  </si>
-  <si>
     <t>淘宝</t>
+  </si>
+  <si>
+    <t>CeraVe适乐肤官方旗舰店</t>
+  </si>
+  <si>
+    <r>
+      <t>cerave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适乐肤官方旗舰店:sycm</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,13 +81,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,8 +122,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -374,56 +407,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" s="2">
+        <v>431052811</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2">
-        <v>321</v>
-      </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
+      <c r="F2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/init_scripts/INIT_TABLE_DATA/t_store.xlsx
+++ b/init_scripts/INIT_TABLE_DATA/t_store.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244C7507-DCE7-4A02-8AC8-BBAD1D5B125E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2782AF10-88E9-4553-88B8-271F86A7CA15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -46,27 +46,152 @@
     <t>CeraVe适乐肤官方旗舰店</t>
   </si>
   <si>
-    <r>
-      <t>cerave</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>适乐肤官方旗舰店:sycm</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>欧莱雅美发官方旗舰店</t>
+  </si>
+  <si>
+    <t>欧莱雅官方旗舰店</t>
+  </si>
+  <si>
+    <t>欧莱雅彩妆官方旗舰店</t>
+  </si>
+  <si>
+    <t>欧莱雅男士官方旗舰店</t>
+  </si>
+  <si>
+    <t>美宝莲旗舰店</t>
+  </si>
+  <si>
+    <t>美即官方旗舰店</t>
+  </si>
+  <si>
+    <t>stylenanda3ce旗舰店</t>
+  </si>
+  <si>
+    <t>Lancome兰蔻官方旗舰店</t>
+  </si>
+  <si>
+    <t>YSL圣罗兰美妆官方旗舰店</t>
+  </si>
+  <si>
+    <t>GIORGIO ARMANI阿玛尼美妆官方旗舰店</t>
+  </si>
+  <si>
+    <t>KIEHLS科颜氏官方旗舰店</t>
+  </si>
+  <si>
+    <t>biotherm碧欧泉官方旗舰店</t>
+  </si>
+  <si>
+    <t>shu uemura植村秀官方旗舰店</t>
+  </si>
+  <si>
+    <t>HR赫莲娜官方旗舰店</t>
+  </si>
+  <si>
+    <t>羽西官方旗舰店</t>
+  </si>
+  <si>
+    <t>HOUSE 99浩仕九九官方旗舰店</t>
+  </si>
+  <si>
+    <t>AtelierCologne欧珑官方旗舰店</t>
+  </si>
+  <si>
+    <t>修丽可官方旗舰店</t>
+  </si>
+  <si>
+    <t>巴黎欧莱雅沙龙专属旗舰店</t>
+  </si>
+  <si>
+    <t>卡诗官方旗舰店</t>
+  </si>
+  <si>
+    <t>理肤泉官方旗舰店</t>
+  </si>
+  <si>
+    <t>VICHY薇姿官方旗舰店</t>
+  </si>
+  <si>
+    <t>勃朗圣泉官方旗舰店</t>
+  </si>
+  <si>
+    <t>欧莱雅美发官方旗舰店:sycm1</t>
+  </si>
+  <si>
+    <t>欧莱雅官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>欧莱雅彩妆官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>欧莱雅男士官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>美宝莲旗舰店:刘旗</t>
+  </si>
+  <si>
+    <t>美即官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>cerave适乐肤官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>stylenanda3ce旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>ancome兰蔻官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>ysl圣罗兰美妆官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>阿玛尼美妆官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>kiehls科颜氏官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>biotherm碧欧泉官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>植村秀官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>hr赫莲娜官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>羽西官方旗舰店:李仁杰</t>
+  </si>
+  <si>
+    <t>house99官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>欧珑官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>修丽可官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>巴黎欧莱雅沙龙专属旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>卡诗官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>理肤泉官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>vichy薇姿官方旗舰店:sycm</t>
+  </si>
+  <si>
+    <t>勃朗圣泉官方旗舰店:sycm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +209,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF6A8759"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -407,15 +525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="35.58203125" customWidth="1"/>
     <col min="3" max="3" width="11.58203125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
@@ -442,21 +560,412 @@
     </row>
     <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>111030208</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>62941831</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>351097166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>149524878</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>68295332</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>60013401</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>431052811</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>227910826</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>115862174</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>471050084</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>434208197</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>306660112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>110271147</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>150050129</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>116386742</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>68910029</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>257644147</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>548932104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>247395133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>477065317</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>122388571</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>154932507</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>154932087</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>530374059</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
